--- a/reports/Reporte-APS-RIR.xlsx
+++ b/reports/Reporte-APS-RIR.xlsx
@@ -6,12 +6,13 @@
   </bookViews>
   <sheets>
     <sheet name="108" sheetId="1" r:id="rId1"/>
+    <sheet name="301" sheetId="2" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Alianza Compañía de Seguros y Reaseguros S.A.</t>
   </si>
@@ -34,7 +35,7 @@
     <t>Recursos de Inversión Requeridos en USD</t>
   </si>
   <si>
-    <t>Recursos de Inversión Reportados</t>
+    <t>RECURSOS DE INVERSIÓN REPORTADOS </t>
   </si>
   <si>
     <t> -   Bienes Raíces</t>
@@ -59,6 +60,18 @@
   </si>
   <si>
     <t> -   Total Recursos de Inversión Reportados</t>
+  </si>
+  <si>
+    <t>RECURSOS DE INVERSIÓN ADMISIBLES</t>
+  </si>
+  <si>
+    <t>CARTERA DE INVERSIONES POR TIPO GENÉRICO DE VALOR</t>
+  </si>
+  <si>
+    <t>CARTERA DE INVERSIONES POR CONCENTRACIÓN EN PROPIEDAD</t>
+  </si>
+  <si>
+    <t>Innovasalud Servicios en Salud S.A.</t>
   </si>
   <si>
     <t>Peticion de Inversión Reportados</t>
@@ -547,13 +560,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="55" customWidth="1"/>
+    <col min="1" max="1" width="70" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
@@ -686,16 +699,116 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="52" t="s">
+      <c r="A20" s="54"/>
+      <c r="B20" s="58"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="57" t="n">
+      <c r="B22" s="56" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="54"/>
+      <c r="B23" s="58"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="56" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="54"/>
+      <c r="B26" s="58"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B6:C6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="70" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="19" t="n">
+        <v>6.86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="22" t="n">
+        <v>7863461</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="29" t="n">
+        <v>1146277.11</v>
+      </c>
+      <c r="C6" s="30"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="56" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="57" t="n">
         <v>3983900.78</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="54"/>
-      <c r="B21" s="58"/>
+    <row r="10" spans="1:2">
+      <c r="A10" s="54"/>
+      <c r="B10" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="1">
